--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\git\Bodies-Collisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
-  <si>
-    <t>Number of Bodies</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Size (radius)</t>
   </si>
@@ -41,13 +38,16 @@
     <t>DeltaT</t>
   </si>
   <si>
-    <t>Iteration (How many loops?)</t>
-  </si>
-  <si>
     <t>TimeEnd (Total Time) milliseconds</t>
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Bodies</t>
+  </si>
+  <si>
+    <t>Iterations</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>2000 Iterations</a:t>
+              <a:t>1000 Bodies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,8 +292,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22823748795392526"/>
-                  <c:y val="-1.6450687650640065E-2"/>
+                  <c:x val="-0.22159938988933175"/>
+                  <c:y val="-8.154474346387168E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -360,22 +360,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7831</c:v>
+                  <c:v>13378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6636</c:v>
+                  <c:v>11093.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6909.333333333333</c:v>
+                  <c:v>12661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8329.3333333333339</c:v>
+                  <c:v>12767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9802</c:v>
+                  <c:v>12267.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10024</c:v>
+                  <c:v>12518.666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +735,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4000 Iterations</a:t>
+              <a:t>500 Bodies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -870,8 +870,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2525833320949053"/>
-                  <c:y val="-1.883576657723194E-2"/>
+                  <c:x val="-0.25317365302664291"/>
+                  <c:y val="-8.9617559899688573E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -938,22 +938,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15076.666666666666</c:v>
+                  <c:v>6100.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15824.333333333334</c:v>
+                  <c:v>5241.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15957.666666666666</c:v>
+                  <c:v>5669.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17493</c:v>
+                  <c:v>5062.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18111</c:v>
+                  <c:v>5253.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18286.333333333332</c:v>
+                  <c:v>5489.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,8 +2510,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>63327</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153276</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158710</xdr:rowOff>
     </xdr:from>
@@ -2880,42 +2880,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
     <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2935,10 +2935,10 @@
         <v>0.5</v>
       </c>
       <c r="F2">
-        <v>7539</v>
+        <v>15703</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2958,10 +2958,10 @@
         <v>0.5</v>
       </c>
       <c r="F3">
-        <v>7868</v>
+        <v>11080</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2981,19 +2981,19 @@
         <v>0.5</v>
       </c>
       <c r="F4">
-        <v>8086</v>
+        <v>13351</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>7831</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3016,10 +3016,10 @@
         <v>0.5</v>
       </c>
       <c r="F8">
-        <v>13072</v>
+        <v>5896</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -3039,10 +3039,10 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>20342</v>
+        <v>5985</v>
       </c>
       <c r="G9">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3062,19 +3062,19 @@
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>11816</v>
+        <v>6420</v>
       </c>
       <c r="G10">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
         <f>AVERAGE(F8:F10)</f>
-        <v>15076.666666666666</v>
+        <v>6100.333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3097,10 +3097,10 @@
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>7100</v>
+        <v>11971</v>
       </c>
       <c r="G14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3120,10 +3120,10 @@
         <v>0.5</v>
       </c>
       <c r="F15">
-        <v>6969</v>
+        <v>10727</v>
       </c>
       <c r="G15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3143,19 +3143,19 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>5839</v>
+        <v>10582</v>
       </c>
       <c r="G16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>6636</v>
+        <v>11093.333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3175,10 +3175,10 @@
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>14064</v>
+        <v>5623</v>
       </c>
       <c r="G20">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3198,10 +3198,10 @@
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>16152</v>
+        <v>4586</v>
       </c>
       <c r="G21">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3221,19 +3221,19 @@
         <v>0.5</v>
       </c>
       <c r="F22">
-        <v>17257</v>
+        <v>5516</v>
       </c>
       <c r="G22">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <f>AVERAGE(F20:F22)</f>
-        <v>15824.333333333334</v>
+        <v>5241.666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -3253,10 +3253,10 @@
         <v>0.5</v>
       </c>
       <c r="F26">
-        <v>6435</v>
+        <v>12319</v>
       </c>
       <c r="G26">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -3276,10 +3276,10 @@
         <v>0.5</v>
       </c>
       <c r="F27">
-        <v>7299</v>
+        <v>13559</v>
       </c>
       <c r="G27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -3299,19 +3299,19 @@
         <v>0.5</v>
       </c>
       <c r="F28">
-        <v>6994</v>
+        <v>12105</v>
       </c>
       <c r="G28">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <f>AVERAGE(F26:F28)</f>
-        <v>6909.333333333333</v>
+        <v>12661</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -3331,10 +3331,10 @@
         <v>0.5</v>
       </c>
       <c r="F32">
-        <v>13554</v>
+        <v>6157</v>
       </c>
       <c r="G32">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -3354,10 +3354,10 @@
         <v>0.5</v>
       </c>
       <c r="F33">
-        <v>14538</v>
+        <v>5223</v>
       </c>
       <c r="G33">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -3377,19 +3377,19 @@
         <v>0.5</v>
       </c>
       <c r="F34">
-        <v>19781</v>
+        <v>5629</v>
       </c>
       <c r="G34">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <f>AVERAGE(F32:F34)</f>
-        <v>15957.666666666666</v>
+        <v>5669.666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -3409,10 +3409,10 @@
         <v>0.5</v>
       </c>
       <c r="F38">
-        <v>8840</v>
+        <v>12999</v>
       </c>
       <c r="G38">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -3432,10 +3432,10 @@
         <v>0.5</v>
       </c>
       <c r="F39">
-        <v>7871</v>
+        <v>12128</v>
       </c>
       <c r="G39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3455,19 +3455,19 @@
         <v>0.5</v>
       </c>
       <c r="F40">
-        <v>8277</v>
+        <v>13174</v>
       </c>
       <c r="G40">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
         <f>AVERAGE(F38:F40)</f>
-        <v>8329.3333333333339</v>
+        <v>12767</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3487,10 +3487,10 @@
         <v>0.5</v>
       </c>
       <c r="F44">
-        <v>18319</v>
+        <v>4836</v>
       </c>
       <c r="G44">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -3510,10 +3510,10 @@
         <v>0.5</v>
       </c>
       <c r="F45">
-        <v>19246</v>
+        <v>5222</v>
       </c>
       <c r="G45">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3533,19 +3533,19 @@
         <v>0.5</v>
       </c>
       <c r="F46">
-        <v>14914</v>
+        <v>5130</v>
       </c>
       <c r="G46">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1">
         <f>AVERAGE(F44:F46)</f>
-        <v>17493</v>
+        <v>5062.666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3565,10 +3565,10 @@
         <v>0.5</v>
       </c>
       <c r="F50">
-        <v>8663</v>
+        <v>12744</v>
       </c>
       <c r="G50">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3588,10 +3588,10 @@
         <v>0.5</v>
       </c>
       <c r="F51">
-        <v>8245</v>
+        <v>11560</v>
       </c>
       <c r="G51">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3614,16 +3614,16 @@
         <v>12498</v>
       </c>
       <c r="G52">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1">
         <f>AVERAGE(F50:F52)</f>
-        <v>9802</v>
+        <v>12267.333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3643,10 +3643,10 @@
         <v>0.5</v>
       </c>
       <c r="F56">
-        <v>19116</v>
+        <v>5365</v>
       </c>
       <c r="G56">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3666,10 +3666,10 @@
         <v>0.5</v>
       </c>
       <c r="F57">
-        <v>16140</v>
+        <v>5584</v>
       </c>
       <c r="G57">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3689,19 +3689,19 @@
         <v>0.5</v>
       </c>
       <c r="F58">
-        <v>19077</v>
+        <v>4812</v>
       </c>
       <c r="G58">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
         <f>AVERAGE(F56:F58)</f>
-        <v>18111</v>
+        <v>5253.666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3721,10 +3721,10 @@
         <v>0.5</v>
       </c>
       <c r="F62">
-        <v>10212</v>
+        <v>11950</v>
       </c>
       <c r="G62">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3744,10 +3744,10 @@
         <v>0.5</v>
       </c>
       <c r="F63">
-        <v>8948</v>
+        <v>13477</v>
       </c>
       <c r="G63">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3767,19 +3767,19 @@
         <v>0.5</v>
       </c>
       <c r="F64">
-        <v>10912</v>
+        <v>12129</v>
       </c>
       <c r="G64">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1">
         <f>AVERAGE(F62:F64)</f>
-        <v>10024</v>
+        <v>12518.666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3799,10 +3799,10 @@
         <v>0.5</v>
       </c>
       <c r="F68">
-        <v>19274</v>
+        <v>6299</v>
       </c>
       <c r="G68">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3822,10 +3822,10 @@
         <v>0.5</v>
       </c>
       <c r="F69">
-        <v>16049</v>
+        <v>5351</v>
       </c>
       <c r="G69">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3845,19 +3845,175 @@
         <v>0.5</v>
       </c>
       <c r="F70">
-        <v>19536</v>
+        <v>4819</v>
       </c>
       <c r="G70">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
         <f>AVERAGE(F68:F70)</f>
-        <v>18286.333333333332</v>
+        <v>5489.666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>500</v>
+      </c>
+      <c r="D77">
+        <v>8515</v>
+      </c>
+      <c r="E77" s="1">
+        <f>AVERAGE(D77:D79)</f>
+        <v>8392.6666666666661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>500</v>
+      </c>
+      <c r="D78">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>500</v>
+      </c>
+      <c r="D79">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>500</v>
+      </c>
+      <c r="D81">
+        <v>8497</v>
+      </c>
+      <c r="E81" s="1">
+        <f>AVERAGE(D81:D83)</f>
+        <v>8203.6666666666661</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>500</v>
+      </c>
+      <c r="D82">
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>500</v>
+      </c>
+      <c r="D83">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>500</v>
+      </c>
+      <c r="D85">
+        <v>8542</v>
+      </c>
+      <c r="E85" s="1">
+        <f>AVERAGE(D85:D87)</f>
+        <v>8643</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>500</v>
+      </c>
+      <c r="D86">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>500</v>
+      </c>
+      <c r="D87">
+        <v>8678</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>500</v>
+      </c>
+      <c r="D90">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
